--- a/micedata_trainedday4.xlsx
+++ b/micedata_trainedday4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BOQ5"/>
+  <dimension ref="A1:BJX5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8602,621 +8602,6 @@
           <t>1634</t>
         </is>
       </c>
-      <c r="BJY1" t="inlineStr">
-        <is>
-          <t>1635</t>
-        </is>
-      </c>
-      <c r="BJZ1" t="inlineStr">
-        <is>
-          <t>1636</t>
-        </is>
-      </c>
-      <c r="BKA1" t="inlineStr">
-        <is>
-          <t>1637</t>
-        </is>
-      </c>
-      <c r="BKB1" t="inlineStr">
-        <is>
-          <t>1638</t>
-        </is>
-      </c>
-      <c r="BKC1" t="inlineStr">
-        <is>
-          <t>1639</t>
-        </is>
-      </c>
-      <c r="BKD1" t="inlineStr">
-        <is>
-          <t>1640</t>
-        </is>
-      </c>
-      <c r="BKE1" t="inlineStr">
-        <is>
-          <t>1641</t>
-        </is>
-      </c>
-      <c r="BKF1" t="inlineStr">
-        <is>
-          <t>1642</t>
-        </is>
-      </c>
-      <c r="BKG1" t="inlineStr">
-        <is>
-          <t>1643</t>
-        </is>
-      </c>
-      <c r="BKH1" t="inlineStr">
-        <is>
-          <t>1644</t>
-        </is>
-      </c>
-      <c r="BKI1" t="inlineStr">
-        <is>
-          <t>1645</t>
-        </is>
-      </c>
-      <c r="BKJ1" t="inlineStr">
-        <is>
-          <t>1646</t>
-        </is>
-      </c>
-      <c r="BKK1" t="inlineStr">
-        <is>
-          <t>1647</t>
-        </is>
-      </c>
-      <c r="BKL1" t="inlineStr">
-        <is>
-          <t>1648</t>
-        </is>
-      </c>
-      <c r="BKM1" t="inlineStr">
-        <is>
-          <t>1649</t>
-        </is>
-      </c>
-      <c r="BKN1" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
-      </c>
-      <c r="BKO1" t="inlineStr">
-        <is>
-          <t>1651</t>
-        </is>
-      </c>
-      <c r="BKP1" t="inlineStr">
-        <is>
-          <t>1652</t>
-        </is>
-      </c>
-      <c r="BKQ1" t="inlineStr">
-        <is>
-          <t>1653</t>
-        </is>
-      </c>
-      <c r="BKR1" t="inlineStr">
-        <is>
-          <t>1654</t>
-        </is>
-      </c>
-      <c r="BKS1" t="inlineStr">
-        <is>
-          <t>1655</t>
-        </is>
-      </c>
-      <c r="BKT1" t="inlineStr">
-        <is>
-          <t>1656</t>
-        </is>
-      </c>
-      <c r="BKU1" t="inlineStr">
-        <is>
-          <t>1657</t>
-        </is>
-      </c>
-      <c r="BKV1" t="inlineStr">
-        <is>
-          <t>1658</t>
-        </is>
-      </c>
-      <c r="BKW1" t="inlineStr">
-        <is>
-          <t>1659</t>
-        </is>
-      </c>
-      <c r="BKX1" t="inlineStr">
-        <is>
-          <t>1660</t>
-        </is>
-      </c>
-      <c r="BKY1" t="inlineStr">
-        <is>
-          <t>1661</t>
-        </is>
-      </c>
-      <c r="BKZ1" t="inlineStr">
-        <is>
-          <t>1662</t>
-        </is>
-      </c>
-      <c r="BLA1" t="inlineStr">
-        <is>
-          <t>1663</t>
-        </is>
-      </c>
-      <c r="BLB1" t="inlineStr">
-        <is>
-          <t>1664</t>
-        </is>
-      </c>
-      <c r="BLC1" t="inlineStr">
-        <is>
-          <t>1665</t>
-        </is>
-      </c>
-      <c r="BLD1" t="inlineStr">
-        <is>
-          <t>1666</t>
-        </is>
-      </c>
-      <c r="BLE1" t="inlineStr">
-        <is>
-          <t>1667</t>
-        </is>
-      </c>
-      <c r="BLF1" t="inlineStr">
-        <is>
-          <t>1668</t>
-        </is>
-      </c>
-      <c r="BLG1" t="inlineStr">
-        <is>
-          <t>1669</t>
-        </is>
-      </c>
-      <c r="BLH1" t="inlineStr">
-        <is>
-          <t>1670</t>
-        </is>
-      </c>
-      <c r="BLI1" t="inlineStr">
-        <is>
-          <t>1671</t>
-        </is>
-      </c>
-      <c r="BLJ1" t="inlineStr">
-        <is>
-          <t>1672</t>
-        </is>
-      </c>
-      <c r="BLK1" t="inlineStr">
-        <is>
-          <t>1673</t>
-        </is>
-      </c>
-      <c r="BLL1" t="inlineStr">
-        <is>
-          <t>1674</t>
-        </is>
-      </c>
-      <c r="BLM1" t="inlineStr">
-        <is>
-          <t>1675</t>
-        </is>
-      </c>
-      <c r="BLN1" t="inlineStr">
-        <is>
-          <t>1676</t>
-        </is>
-      </c>
-      <c r="BLO1" t="inlineStr">
-        <is>
-          <t>1677</t>
-        </is>
-      </c>
-      <c r="BLP1" t="inlineStr">
-        <is>
-          <t>1678</t>
-        </is>
-      </c>
-      <c r="BLQ1" t="inlineStr">
-        <is>
-          <t>1679</t>
-        </is>
-      </c>
-      <c r="BLR1" t="inlineStr">
-        <is>
-          <t>1680</t>
-        </is>
-      </c>
-      <c r="BLS1" t="inlineStr">
-        <is>
-          <t>1681</t>
-        </is>
-      </c>
-      <c r="BLT1" t="inlineStr">
-        <is>
-          <t>1682</t>
-        </is>
-      </c>
-      <c r="BLU1" t="inlineStr">
-        <is>
-          <t>1683</t>
-        </is>
-      </c>
-      <c r="BLV1" t="inlineStr">
-        <is>
-          <t>1684</t>
-        </is>
-      </c>
-      <c r="BLW1" t="inlineStr">
-        <is>
-          <t>1685</t>
-        </is>
-      </c>
-      <c r="BLX1" t="inlineStr">
-        <is>
-          <t>1686</t>
-        </is>
-      </c>
-      <c r="BLY1" t="inlineStr">
-        <is>
-          <t>1687</t>
-        </is>
-      </c>
-      <c r="BLZ1" t="inlineStr">
-        <is>
-          <t>1688</t>
-        </is>
-      </c>
-      <c r="BMA1" t="inlineStr">
-        <is>
-          <t>1689</t>
-        </is>
-      </c>
-      <c r="BMB1" t="inlineStr">
-        <is>
-          <t>1690</t>
-        </is>
-      </c>
-      <c r="BMC1" t="inlineStr">
-        <is>
-          <t>1691</t>
-        </is>
-      </c>
-      <c r="BMD1" t="inlineStr">
-        <is>
-          <t>1692</t>
-        </is>
-      </c>
-      <c r="BME1" t="inlineStr">
-        <is>
-          <t>1693</t>
-        </is>
-      </c>
-      <c r="BMF1" t="inlineStr">
-        <is>
-          <t>1694</t>
-        </is>
-      </c>
-      <c r="BMG1" t="inlineStr">
-        <is>
-          <t>1695</t>
-        </is>
-      </c>
-      <c r="BMH1" t="inlineStr">
-        <is>
-          <t>1696</t>
-        </is>
-      </c>
-      <c r="BMI1" t="inlineStr">
-        <is>
-          <t>1697</t>
-        </is>
-      </c>
-      <c r="BMJ1" t="inlineStr">
-        <is>
-          <t>1698</t>
-        </is>
-      </c>
-      <c r="BMK1" t="inlineStr">
-        <is>
-          <t>1699</t>
-        </is>
-      </c>
-      <c r="BML1" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="BMM1" t="inlineStr">
-        <is>
-          <t>1701</t>
-        </is>
-      </c>
-      <c r="BMN1" t="inlineStr">
-        <is>
-          <t>1702</t>
-        </is>
-      </c>
-      <c r="BMO1" t="inlineStr">
-        <is>
-          <t>1703</t>
-        </is>
-      </c>
-      <c r="BMP1" t="inlineStr">
-        <is>
-          <t>1704</t>
-        </is>
-      </c>
-      <c r="BMQ1" t="inlineStr">
-        <is>
-          <t>1705</t>
-        </is>
-      </c>
-      <c r="BMR1" t="inlineStr">
-        <is>
-          <t>1706</t>
-        </is>
-      </c>
-      <c r="BMS1" t="inlineStr">
-        <is>
-          <t>1707</t>
-        </is>
-      </c>
-      <c r="BMT1" t="inlineStr">
-        <is>
-          <t>1708</t>
-        </is>
-      </c>
-      <c r="BMU1" t="inlineStr">
-        <is>
-          <t>1709</t>
-        </is>
-      </c>
-      <c r="BMV1" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="BMW1" t="inlineStr">
-        <is>
-          <t>1711</t>
-        </is>
-      </c>
-      <c r="BMX1" t="inlineStr">
-        <is>
-          <t>1712</t>
-        </is>
-      </c>
-      <c r="BMY1" t="inlineStr">
-        <is>
-          <t>1713</t>
-        </is>
-      </c>
-      <c r="BMZ1" t="inlineStr">
-        <is>
-          <t>1714</t>
-        </is>
-      </c>
-      <c r="BNA1" t="inlineStr">
-        <is>
-          <t>1715</t>
-        </is>
-      </c>
-      <c r="BNB1" t="inlineStr">
-        <is>
-          <t>1716</t>
-        </is>
-      </c>
-      <c r="BNC1" t="inlineStr">
-        <is>
-          <t>1717</t>
-        </is>
-      </c>
-      <c r="BND1" t="inlineStr">
-        <is>
-          <t>1718</t>
-        </is>
-      </c>
-      <c r="BNE1" t="inlineStr">
-        <is>
-          <t>1719</t>
-        </is>
-      </c>
-      <c r="BNF1" t="inlineStr">
-        <is>
-          <t>1720</t>
-        </is>
-      </c>
-      <c r="BNG1" t="inlineStr">
-        <is>
-          <t>1721</t>
-        </is>
-      </c>
-      <c r="BNH1" t="inlineStr">
-        <is>
-          <t>1722</t>
-        </is>
-      </c>
-      <c r="BNI1" t="inlineStr">
-        <is>
-          <t>1723</t>
-        </is>
-      </c>
-      <c r="BNJ1" t="inlineStr">
-        <is>
-          <t>1724</t>
-        </is>
-      </c>
-      <c r="BNK1" t="inlineStr">
-        <is>
-          <t>1725</t>
-        </is>
-      </c>
-      <c r="BNL1" t="inlineStr">
-        <is>
-          <t>1726</t>
-        </is>
-      </c>
-      <c r="BNM1" t="inlineStr">
-        <is>
-          <t>1727</t>
-        </is>
-      </c>
-      <c r="BNN1" t="inlineStr">
-        <is>
-          <t>1728</t>
-        </is>
-      </c>
-      <c r="BNO1" t="inlineStr">
-        <is>
-          <t>1729</t>
-        </is>
-      </c>
-      <c r="BNP1" t="inlineStr">
-        <is>
-          <t>1730</t>
-        </is>
-      </c>
-      <c r="BNQ1" t="inlineStr">
-        <is>
-          <t>1731</t>
-        </is>
-      </c>
-      <c r="BNR1" t="inlineStr">
-        <is>
-          <t>1732</t>
-        </is>
-      </c>
-      <c r="BNS1" t="inlineStr">
-        <is>
-          <t>1733</t>
-        </is>
-      </c>
-      <c r="BNT1" t="inlineStr">
-        <is>
-          <t>1734</t>
-        </is>
-      </c>
-      <c r="BNU1" t="inlineStr">
-        <is>
-          <t>1735</t>
-        </is>
-      </c>
-      <c r="BNV1" t="inlineStr">
-        <is>
-          <t>1736</t>
-        </is>
-      </c>
-      <c r="BNW1" t="inlineStr">
-        <is>
-          <t>1737</t>
-        </is>
-      </c>
-      <c r="BNX1" t="inlineStr">
-        <is>
-          <t>1738</t>
-        </is>
-      </c>
-      <c r="BNY1" t="inlineStr">
-        <is>
-          <t>1739</t>
-        </is>
-      </c>
-      <c r="BNZ1" t="inlineStr">
-        <is>
-          <t>1740</t>
-        </is>
-      </c>
-      <c r="BOA1" t="inlineStr">
-        <is>
-          <t>1741</t>
-        </is>
-      </c>
-      <c r="BOB1" t="inlineStr">
-        <is>
-          <t>1742</t>
-        </is>
-      </c>
-      <c r="BOC1" t="inlineStr">
-        <is>
-          <t>1743</t>
-        </is>
-      </c>
-      <c r="BOD1" t="inlineStr">
-        <is>
-          <t>1744</t>
-        </is>
-      </c>
-      <c r="BOE1" t="inlineStr">
-        <is>
-          <t>1745</t>
-        </is>
-      </c>
-      <c r="BOF1" t="inlineStr">
-        <is>
-          <t>1746</t>
-        </is>
-      </c>
-      <c r="BOG1" t="inlineStr">
-        <is>
-          <t>1747</t>
-        </is>
-      </c>
-      <c r="BOH1" t="inlineStr">
-        <is>
-          <t>1748</t>
-        </is>
-      </c>
-      <c r="BOI1" t="inlineStr">
-        <is>
-          <t>1749</t>
-        </is>
-      </c>
-      <c r="BOJ1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="BOK1" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="BOL1" t="inlineStr">
-        <is>
-          <t>1752</t>
-        </is>
-      </c>
-      <c r="BOM1" t="inlineStr">
-        <is>
-          <t>1753</t>
-        </is>
-      </c>
-      <c r="BON1" t="inlineStr">
-        <is>
-          <t>1754</t>
-        </is>
-      </c>
-      <c r="BOO1" t="inlineStr">
-        <is>
-          <t>1755</t>
-        </is>
-      </c>
-      <c r="BOP1" t="inlineStr">
-        <is>
-          <t>1756</t>
-        </is>
-      </c>
-      <c r="BOQ1" t="inlineStr">
-        <is>
-          <t>1757</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9224,152 +8609,137 @@
           <t>CS- conditioning</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="CI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="HK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="HL2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="HM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="HN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="HO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="HP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="HQ2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FS2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GK2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9384,62 +8754,137 @@
           <t>-</t>
         </is>
       </c>
-      <c r="MI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="MJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="MK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ML2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="MM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="MN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="MO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="MP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="MQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="NL2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="NM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="NN2" t="inlineStr">
+      <c r="HT2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HV2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HW2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HY2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HZ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KV2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="KY2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LY2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="LZ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ME2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="MF2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9459,27 +8904,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="NR2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="NS2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="NT2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="PD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PF2" t="inlineStr">
+      <c r="NU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="NW2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9489,707 +8924,302 @@
           <t>-</t>
         </is>
       </c>
-      <c r="PH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="PJ2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="PK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="PL2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="YD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="YE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="YG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="YH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="YI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="YJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="YK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ABS2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ABT2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ABU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ABV2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ABW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ABX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ABY2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ABZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ACA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADL2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ADQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AKO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AKP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AKQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AKR2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AKS2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AKT2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AKU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AKV2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ALN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ALO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ALP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ALQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ALR2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ALS2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ALT2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ALU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ANC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AND2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ANE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ANF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ANG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ANH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ANI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ANJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AOF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AOG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AOH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AOI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AOJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AOK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AOL2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AOM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AON2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQY2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ARA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ARB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ARC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ARD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASL2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ASQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ATZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUY2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AUZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AVA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AVB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AVC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AVD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AVE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AVF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AYQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AYR2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AYS2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AYT2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AYU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AYV2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AYW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AYX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIR2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIS2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIT2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIV2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BIW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BJS2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BJT2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BJU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BJV2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BJW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BJX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BJY2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BJZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BKA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLT2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLV2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLY2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BLZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BMA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BMB2" t="inlineStr">
+      <c r="PM2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="SB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="SE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="SF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="SG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="SH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="SI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="SJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AAA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AAE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AAF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AAG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AAH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AES2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AEW2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AEX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AEY2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AFT2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AFU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AFW2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AFX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ALC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ALD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ALE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ALF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ALG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ALH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ALI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ALJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ANR2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ANT2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ASX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ASY2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ATR2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ATU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ATV2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ATW2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ATX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AXD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AXG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AXK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AXL2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AXU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AYA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AYB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AYC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BBA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BBC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BBD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BBE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BCN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BCO2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BCQ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BCR2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BCS2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BCU2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10201,242 +9231,32 @@
           <t>CS+ conditioning</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="DZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ED3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GS3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="JA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="JB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="JC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="JD3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10466,167 +9286,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="KQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="KR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="KS3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="KT3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="KU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="KV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="KW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="KX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="KY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QD3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="QS3" t="inlineStr">
+      <c r="JJ3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10641,187 +9301,147 @@
           <t>-</t>
         </is>
       </c>
-      <c r="QV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="RS3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="SP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="UP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="UQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="UR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="US3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="UT3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="UU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="UV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="UW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="UX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="VQ3" t="inlineStr">
+      <c r="QW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="QX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="QY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="QZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="RA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="RB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="TR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="TS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="TT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="TX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="TY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="TZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="VC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="VD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="VE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="VG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="VH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="VX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="VY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="VZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="WZ3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10841,192 +9461,522 @@
           <t>-</t>
         </is>
       </c>
-      <c r="XD3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="XE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="XF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="XG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="XH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="XI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ZU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ZV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ZW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ZX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ZY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ZZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AAA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AAB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AAC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AEN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AEO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AEP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AEQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AER3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AES3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AET3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AEU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AEV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APS3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APT3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="APV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AWB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AWC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AWD3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AWE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AWF3" t="inlineStr">
+      <c r="YK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="YL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="YM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="YN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="YO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="YP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="YQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="YR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="YS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ABL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ABM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ABN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ABO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ABP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ABQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ABT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ACD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ACE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ACF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ACG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ACH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ACI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ACJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ACK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ADW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AGZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AHA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AHB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AHV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AHW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AHX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AHY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AHZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AIX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AKE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AKF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AKG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AKH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AKI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AKJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AKK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AKL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AMR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AMS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AMT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AMU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AMV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AMW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AMX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AMY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="APD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="APE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="APF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="APG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="APH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="API3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="APJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="APK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="APL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ARJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ARK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ARL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ARM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ARN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ARO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ARQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AVD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AVE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AVH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AVI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AVJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AVK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AVL3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11051,47 +10001,67 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AXQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AXR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AXS3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AXT3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AXU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AXV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AXW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AXX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AXY3" t="inlineStr">
+      <c r="AWK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AWL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AWM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AWN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AYX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AYY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AYZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZF3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11136,132 +10106,37 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BAG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBS3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BBT3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BDM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BEI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BEJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BEK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BEL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BEM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BEN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BEO3" t="inlineStr">
+      <c r="BDV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BDW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BDX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BDY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BDZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BEA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BEC3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11271,172 +10146,42 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BFV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BFW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BFX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BFY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BFZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGR3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGS3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGT3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BGZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BNF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BNG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BNH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BNI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BNJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BNK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BNL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BNM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BOF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BOG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BOH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BOI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BOJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BOK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BOL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BOM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="BON3" t="inlineStr">
+      <c r="BEQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BER3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BES3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BET3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BEU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BEV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BEW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BEX3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11455,2252 +10200,1602 @@
           <t>쥐의 행동</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>d</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>d</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="DQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="EI5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="EM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="FK5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
+      <c r="FZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GA5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GD5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GH5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GI5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GJ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="GT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="HF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="HG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="HH5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="HQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="IR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="IS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="JE5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="JJ5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="CB5" t="inlineStr">
+      <c r="KM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="KN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="KO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="KP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="KR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="KS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="KT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="KX5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr">
+      <c r="KY5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
+      <c r="LA5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="CE5" t="inlineStr">
+      <c r="LB5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="CG5" t="inlineStr">
+      <c r="LC5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="CJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="CK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="CL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="CM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="CN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="CO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="DX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="DY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="DZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ED5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="EQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="FY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="GY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="HZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="JB5" t="inlineStr">
+      <c r="LL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="LM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="LO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="LS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="LY5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="LZ5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="MF5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="MG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="MH5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="MI5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="MJ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NA5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ND5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NH5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NI5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NJ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="NO5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="NP5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="NQ5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="OA5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="OB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="OC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="QM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="QR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="QS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="QT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="QU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="QV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="QZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RA5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RH5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RW5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RX5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RY5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="RZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SA5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ST5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SW5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="SZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="TJ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="TK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="TL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="TU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="TV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="TW5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="TX5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="TY5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="UB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="UC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="UY5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="VC5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="JC5" t="inlineStr">
+      <c r="VD5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="JD5" t="inlineStr">
+      <c r="VE5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="JE5" t="inlineStr">
+      <c r="VG5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="JF5" t="inlineStr">
+      <c r="VH5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="JG5" t="inlineStr">
+      <c r="VP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="VQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="VR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="VT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="VU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="VV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="WB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="WC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="WD5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="WE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="WF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="WQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="WR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="WT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="XE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ZC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ZG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ZK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ZS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ZT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ZU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ZV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AAE5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="AAF5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="AAG5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="ABE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ABF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ABG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ABO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ACF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ACG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ACH5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ACJ5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="JH5" t="inlineStr">
+      <c r="ACK5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="JK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="JL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="JM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="JN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="LE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="MK5" t="inlineStr">
+      <c r="ADF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ADN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ADQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ADT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ADU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ADV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ADW5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ADX5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AEB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AEU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AEV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AEW5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AEX5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AEY5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AGW5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AHV5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AHW5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AHX5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AIE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AIF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AIG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AIH5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AII5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AJM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AJN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AKD5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AKG5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AKH5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="ALC5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="ML5" t="inlineStr">
+      <c r="ALH5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="MM5" t="inlineStr">
+      <c r="ALI5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="MN5" t="inlineStr">
+      <c r="ALJ5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="MO5" t="inlineStr">
+      <c r="ALK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ALM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ALN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ALO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ALP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ALQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ALR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ALS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ALU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AMK5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AML5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AOY5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AOZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="APE5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="APF5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="APJ5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="APK5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="APR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="APS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AQV5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AQW5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AQX5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AQY5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="ARF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ARL5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="ARM5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="ARN5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="ARO5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="ARQ5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="ASO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ASZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ATA5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ATU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ATY5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="ATZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AUI5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AVJ5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AVK5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AVL5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AVS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AVT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AWG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AWI5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AWJ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AWN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AWO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AWZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXA5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXB5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXD5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXF5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXG5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXH5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXI5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXJ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AXS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AYL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AYM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AYN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AYO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AYT5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AYU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AZC5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AZD5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="AZE5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BAD5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BAL5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BAP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BAU5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BAV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BBE5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="MP5" t="inlineStr">
+      <c r="BCO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BCP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BCQ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BCR5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BCS5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="MQ5" t="inlineStr">
+      <c r="BCU5" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="MS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="MT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="NL5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="NM5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="NN5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="NO5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="NP5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="NQ5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="NR5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="NS5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="NT5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="PL5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="PW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="PY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="PZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="QZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="RA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="RB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="RN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="RP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="RU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="RV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="RW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="RZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="SH5" t="inlineStr">
+      <c r="BDM5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BDN5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BDO5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BDP5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BDV5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BDW5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BDX5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BDY5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BDZ5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BEX5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="SI5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="SJ5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="TI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="TS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="UP5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="UQ5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="UR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="UW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="UZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="VA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="VB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="VK5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="VL5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="VM5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="VN5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="VS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="VT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="VU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="VV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="VW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="WF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="WG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="WM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="XC5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="XD5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="XE5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="XN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="XO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="XP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="XQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="YE5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AAH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AAI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AAJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AAK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AAL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AAM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AAP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ABV5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="ABW5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="ABX5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="ABY5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AET5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="AJK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AJZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AKU5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AKV5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="ALP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ALX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ALY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ALZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AMA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AMB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AMC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AMD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AMH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AMR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANC5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AND5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="ANF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ANX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AOC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AOD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AOH5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AOI5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AOJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AOL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AOM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AOT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="APD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="APU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="APV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="APW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="APX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="APY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="APZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AQC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AQD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AQY5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AQZ5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="ARA5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="ASJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ASK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ASL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ASM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ASQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ASW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ASX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ASZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="ATZ5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AUA5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="AUZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AVY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AWP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AXQ5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="AXS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AXT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AXU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AXV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AXW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AXY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AXZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AYY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AZE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AZF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AZG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AZR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BAT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBL5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="BBM5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="BBP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBV5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BBZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BCZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BDO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BEJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BEK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BEL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BEN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BEO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BEP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BER5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BES5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BET5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BEU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BEX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BFX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BFZ5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="BGA5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="BGE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BGF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BGG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BGH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BGI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BGJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BGY5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="BHE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BHO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BIS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BIT5" t="inlineStr">
+      <c r="BFW5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BGS5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="BIU5" t="inlineStr">
         <is>
           <t>f</t>
         </is>
@@ -13710,227 +11805,7 @@
           <t>f</t>
         </is>
       </c>
-      <c r="BIW5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BIX5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BJC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BJD5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BJE5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BJN5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
       <c r="BJO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BJP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BJR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BJT5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="BJU5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="BJV5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="BJW5" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="BKA5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BKF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BKG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BKH5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BKI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BKK5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BKL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BKM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BLB5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BLC5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BLJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BLU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BLZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BME5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BMT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNJ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNL5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNQ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNR5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNS5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNT5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNU5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNY5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BNZ5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BOF5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BOG5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BOI5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BOM5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BOO5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BOP5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BOQ5" t="inlineStr">
         <is>
           <t>f</t>
         </is>
